--- a/Crédito disponível - Centralização - Campus São Cristóvão.xlsx
+++ b/Crédito disponível - Centralização - Campus São Cristóvão.xlsx
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="12">
-        <v>224852.22</v>
+        <v>169520.3</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -610,13 +610,13 @@
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12">
-        <v>406437.65</v>
+        <v>431099.65</v>
       </c>
       <c r="N10" s="12">
-        <v>8550.06</v>
+        <v>125812.36</v>
       </c>
       <c r="O10" s="13">
-        <v>8550.06</v>
+        <v>77310.06</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="12">
-        <v>132697.7</v>
+        <v>134197.7</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
@@ -790,7 +790,7 @@
         <v>8408.53</v>
       </c>
       <c r="O16" s="13">
-        <v>4943.98</v>
+        <v>8408.53</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12">
-        <v>873336.56</v>
+        <v>918646.48</v>
       </c>
       <c r="N17" s="12">
-        <v>385665.27</v>
+        <v>448735.6</v>
       </c>
       <c r="O17" s="13">
-        <v>372557.34</v>
+        <v>438712.76</v>
       </c>
     </row>
     <row r="18">
@@ -848,7 +848,7 @@
         <v>491791.19</v>
       </c>
       <c r="O18" s="13">
-        <v>479461.97</v>
+        <v>488726.58</v>
       </c>
     </row>
     <row r="19">
@@ -995,7 +995,9 @@
       <c r="M23" s="12">
         <v>852992</v>
       </c>
-      <c r="N23" s="12"/>
+      <c r="N23" s="12">
+        <v>108076</v>
+      </c>
       <c r="O23" s="13"/>
     </row>
     <row r="24">
@@ -1020,7 +1022,9 @@
       <c r="M24" s="12">
         <v>163993.11</v>
       </c>
-      <c r="N24" s="12"/>
+      <c r="N24" s="12">
+        <v>5667.92</v>
+      </c>
       <c r="O24" s="13"/>
     </row>
     <row r="25">
@@ -1101,7 +1105,9 @@
       <c r="M27" s="12">
         <v>66432.8</v>
       </c>
-      <c r="N27" s="12"/>
+      <c r="N27" s="12">
+        <v>3030.6</v>
+      </c>
       <c r="O27" s="13"/>
     </row>
     <row r="28">

--- a/Crédito disponível - Centralização - Campus São Cristóvão.xlsx
+++ b/Crédito disponível - Centralização - Campus São Cristóvão.xlsx
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="12">
-        <v>169520.3</v>
+        <v>153380.3</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>125812.36</v>
       </c>
       <c r="O10" s="13">
-        <v>77310.06</v>
+        <v>125812.36</v>
       </c>
     </row>
     <row r="11">
@@ -758,10 +758,10 @@
         <v>5000</v>
       </c>
       <c r="N15" s="12">
-        <v>241.08</v>
+        <v>482.16</v>
       </c>
       <c r="O15" s="13">
-        <v>241.08</v>
+        <v>482.16</v>
       </c>
     </row>
     <row r="16">
@@ -842,7 +842,7 @@
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12">
-        <v>1048311.35</v>
+        <v>1064451.35</v>
       </c>
       <c r="N18" s="12">
         <v>491791.19</v>
@@ -873,7 +873,9 @@
       <c r="M19" s="12">
         <v>59110.13</v>
       </c>
-      <c r="N19" s="12"/>
+      <c r="N19" s="12">
+        <v>8497.29</v>
+      </c>
       <c r="O19" s="13"/>
     </row>
     <row r="20">
@@ -996,9 +998,11 @@
         <v>852992</v>
       </c>
       <c r="N23" s="12">
-        <v>108076</v>
-      </c>
-      <c r="O23" s="13"/>
+        <v>106312</v>
+      </c>
+      <c r="O23" s="13">
+        <v>106312</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="14"/>
@@ -1023,9 +1027,11 @@
         <v>163993.11</v>
       </c>
       <c r="N24" s="12">
+        <v>10207.2</v>
+      </c>
+      <c r="O24" s="13">
         <v>5667.92</v>
       </c>
-      <c r="O24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="14"/>

--- a/Crédito disponível - Centralização - Campus São Cristóvão.xlsx
+++ b/Crédito disponível - Centralização - Campus São Cristóvão.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>Crédito disponível - Centralização - Campus São Cristóvão</t>
   </si>
@@ -112,6 +112,12 @@
     <t xml:space="preserve">DEM.APL.REC.TIT.TN,EX.RF.DIV.PUB.</t>
   </si>
   <si>
+    <t xml:space="preserve">339018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUXILIO FINANCEIRO A ESTUDANTES</t>
+  </si>
+  <si>
     <t xml:space="preserve">158392</t>
   </si>
   <si>
@@ -146,12 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">ASSISTENCIA AOS ESTUDANTES DAS INSTITUICOES FEDERAIS DE EDUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">339018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUXILIO FINANCEIRO A ESTUDANTES</t>
   </si>
   <si>
     <t xml:space="preserve">339032</t>
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -554,10 +554,12 @@
         <v>21</v>
       </c>
       <c r="K8" s="12">
-        <v>64471</v>
+        <v>471</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="M8" s="12">
+        <v>64000</v>
+      </c>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
     </row>
@@ -581,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="12">
-        <v>153380.3</v>
+        <v>133458.18</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -606,17 +608,17 @@
         <v>26</v>
       </c>
       <c r="K10" s="12">
-        <v>8918</v>
+        <v>2993</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12">
-        <v>431099.65</v>
+        <v>437024.65</v>
       </c>
       <c r="N10" s="12">
-        <v>125812.36</v>
+        <v>177555.36</v>
       </c>
       <c r="O10" s="13">
-        <v>125812.36</v>
+        <v>164737.36</v>
       </c>
     </row>
     <row r="11">
@@ -635,14 +637,18 @@
         <v>28</v>
       </c>
       <c r="K11" s="12">
-        <v>134197.7</v>
+        <v>132697.7</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
+        <v>12482.34</v>
+      </c>
+      <c r="N11" s="12">
         <v>10992.34</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
+      <c r="O11" s="13">
+        <v>10992.34</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="10"/>
@@ -691,7 +697,7 @@
         <v>24</v>
       </c>
       <c r="K13" s="12">
-        <v>592420</v>
+        <v>147839.31</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
@@ -703,32 +709,20 @@
     <row r="14">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="11">
-        <v>3</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="K14" s="12">
-        <v>2E-02</v>
+        <v>800</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -745,24 +739,22 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K15" s="12">
-        <v>0</v>
+        <v>5925</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12">
-        <v>5000</v>
+        <v>1684.05</v>
       </c>
       <c r="N15" s="12">
-        <v>482.16</v>
-      </c>
-      <c r="O15" s="13">
-        <v>482.16</v>
-      </c>
+        <v>1684.05</v>
+      </c>
+      <c r="O15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="10"/>
@@ -774,53 +766,55 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K16" s="12">
         <v>0</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12">
-        <v>40000</v>
-      </c>
-      <c r="N16" s="12">
-        <v>8408.53</v>
-      </c>
-      <c r="O16" s="13">
-        <v>8408.53</v>
-      </c>
+        <v>4390.39</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I17" s="11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K17" s="12">
-        <v>0</v>
+        <v>2E-02</v>
       </c>
       <c r="L17" s="12"/>
-      <c r="M17" s="12">
-        <v>918646.48</v>
-      </c>
-      <c r="N17" s="12">
-        <v>448735.6</v>
-      </c>
-      <c r="O17" s="13">
-        <v>438712.76</v>
-      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10"/>
@@ -832,23 +826,23 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K18" s="12">
-        <v>1801.4</v>
+        <v>0</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12">
-        <v>1064451.35</v>
+        <v>5000</v>
       </c>
       <c r="N18" s="12">
-        <v>491791.19</v>
+        <v>1264.72</v>
       </c>
       <c r="O18" s="13">
-        <v>488726.58</v>
+        <v>1264.72</v>
       </c>
     </row>
     <row r="19">
@@ -861,22 +855,24 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K19" s="12">
         <v>0</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12">
-        <v>59110.13</v>
+        <v>40000</v>
       </c>
       <c r="N19" s="12">
-        <v>8497.29</v>
-      </c>
-      <c r="O19" s="13"/>
+        <v>13062.13</v>
+      </c>
+      <c r="O19" s="13">
+        <v>13062.13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="10"/>
@@ -898,13 +894,13 @@
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12">
-        <v>1296.18</v>
+        <v>918646.48</v>
       </c>
       <c r="N20" s="12">
-        <v>536.68</v>
+        <v>630968.72</v>
       </c>
       <c r="O20" s="13">
-        <v>536.68</v>
+        <v>620945.91</v>
       </c>
     </row>
     <row r="21">
@@ -917,67 +913,57 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K21" s="12">
-        <v>0</v>
+        <v>1801.4</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12">
-        <v>29286.95</v>
+        <v>1064451.35</v>
       </c>
       <c r="N21" s="12">
-        <v>29286.95</v>
+        <v>686526.23</v>
       </c>
       <c r="O21" s="13">
-        <v>29286.95</v>
+        <v>647048.58</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="11">
-        <v>3</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K22" s="12">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="13"/>
+      <c r="M22" s="12">
+        <v>59110.13</v>
+      </c>
+      <c r="N22" s="12">
+        <v>8497.29</v>
+      </c>
+      <c r="O22" s="13">
+        <v>8497.29</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -985,28 +971,28 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K23" s="12">
         <v>0</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12">
-        <v>852992</v>
+        <v>1296.18</v>
       </c>
       <c r="N23" s="12">
-        <v>106312</v>
+        <v>753.68</v>
       </c>
       <c r="O23" s="13">
-        <v>106312</v>
+        <v>753.68</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -1014,39 +1000,47 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K24" s="12">
         <v>0</v>
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="12">
-        <v>163993.11</v>
+        <v>29286.95</v>
       </c>
       <c r="N24" s="12">
-        <v>10207.2</v>
+        <v>29286.95</v>
       </c>
       <c r="O24" s="13">
-        <v>5667.92</v>
+        <v>29286.95</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I25" s="11" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K25" s="12">
         <v>0</v>
@@ -1057,41 +1051,33 @@
       <c r="O25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="11">
-        <v>3</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K26" s="12">
-        <v>53873.2</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12">
+        <v>170320.5</v>
+      </c>
       <c r="N26" s="12"/>
       <c r="O26" s="13"/>
     </row>
     <row r="27">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -1099,42 +1085,44 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K27" s="12">
         <v>0</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12">
-        <v>66432.8</v>
-      </c>
-      <c r="N27" s="12">
-        <v>3030.6</v>
-      </c>
+        <v>38796.88</v>
+      </c>
+      <c r="N27" s="12"/>
       <c r="O27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="A28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="11">
         <v>3</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="11" t="s">
@@ -1144,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="12">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
@@ -1154,34 +1142,301 @@
     <row r="29">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>42</v>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="K29" s="12">
         <v>0</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12">
+        <v>852992</v>
+      </c>
+      <c r="N29" s="12">
+        <v>201378</v>
+      </c>
+      <c r="O29" s="13">
+        <v>201378</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12">
+        <v>163993.11</v>
+      </c>
+      <c r="N30" s="12">
+        <v>16291.2</v>
+      </c>
+      <c r="O30" s="13">
+        <v>16291.2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="11">
+        <v>3</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="12">
+        <v>51863.2</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12">
+        <v>750</v>
+      </c>
+      <c r="N33" s="12">
+        <v>750</v>
+      </c>
+      <c r="O33" s="13">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12">
+        <v>66432.8</v>
+      </c>
+      <c r="N34" s="12">
+        <v>31649.85</v>
+      </c>
+      <c r="O34" s="13">
+        <v>31649.85</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="11">
+        <v>3</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12">
         <v>19230</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N36" s="12">
         <v>19212</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O36" s="13">
         <v>19212</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="15">
+        <v>3</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12">
+        <v>1260</v>
+      </c>
+      <c r="N38" s="12">
+        <v>1260</v>
+      </c>
+      <c r="O38" s="13">
+        <v>1260</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="51">
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A6:B7"/>
@@ -1189,38 +1444,50 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="D8:D16"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="H9:H12"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F14:F21"/>
-    <mergeCell ref="G14:G21"/>
-    <mergeCell ref="H14:H21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="D17:D27"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="G17:G24"/>
+    <mergeCell ref="H17:H24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus São Cristóvão.xlsx
+++ b/Crédito disponível - Centralização - Campus São Cristóvão.xlsx
@@ -615,10 +615,10 @@
         <v>437024.65</v>
       </c>
       <c r="N10" s="12">
+        <v>177670.86</v>
+      </c>
+      <c r="O10" s="13">
         <v>177555.36</v>
-      </c>
-      <c r="O10" s="13">
-        <v>164737.36</v>
       </c>
     </row>
     <row r="11">
@@ -754,7 +754,9 @@
       <c r="N15" s="12">
         <v>1684.05</v>
       </c>
-      <c r="O15" s="13"/>
+      <c r="O15" s="13">
+        <v>1684.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="10"/>
@@ -926,7 +928,7 @@
         <v>1064451.35</v>
       </c>
       <c r="N21" s="12">
-        <v>686526.23</v>
+        <v>720590.33</v>
       </c>
       <c r="O21" s="13">
         <v>647048.58</v>
@@ -1162,7 +1164,7 @@
         <v>852992</v>
       </c>
       <c r="N29" s="12">
-        <v>201378</v>
+        <v>202098</v>
       </c>
       <c r="O29" s="13">
         <v>201378</v>
@@ -1191,7 +1193,7 @@
         <v>163993.11</v>
       </c>
       <c r="N30" s="12">
-        <v>16291.2</v>
+        <v>18940.7</v>
       </c>
       <c r="O30" s="13">
         <v>16291.2</v>
@@ -1305,7 +1307,7 @@
         <v>66432.8</v>
       </c>
       <c r="N34" s="12">
-        <v>31649.85</v>
+        <v>31962.1</v>
       </c>
       <c r="O34" s="13">
         <v>31649.85</v>

--- a/Crédito disponível - Centralização - Campus São Cristóvão.xlsx
+++ b/Crédito disponível - Centralização - Campus São Cristóvão.xlsx
@@ -583,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="12">
-        <v>133458.18</v>
+        <v>131198.18</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -612,13 +612,13 @@
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12">
-        <v>437024.65</v>
+        <v>439284.65</v>
       </c>
       <c r="N10" s="12">
         <v>177670.86</v>
       </c>
       <c r="O10" s="13">
-        <v>177555.36</v>
+        <v>175224.62</v>
       </c>
     </row>
     <row r="11">
@@ -931,7 +931,7 @@
         <v>720590.33</v>
       </c>
       <c r="O21" s="13">
-        <v>647048.58</v>
+        <v>679963.07</v>
       </c>
     </row>
     <row r="22">
@@ -1167,7 +1167,7 @@
         <v>202098</v>
       </c>
       <c r="O29" s="13">
-        <v>201378</v>
+        <v>202098</v>
       </c>
     </row>
     <row r="30">
@@ -1196,7 +1196,7 @@
         <v>18940.7</v>
       </c>
       <c r="O30" s="13">
-        <v>16291.2</v>
+        <v>18844.7</v>
       </c>
     </row>
     <row r="31">
